--- a/scenario-dev/TEAM-Kenya_scenario-dev.xlsx
+++ b/scenario-dev/TEAM-Kenya_scenario-dev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\scenario-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE721DE0-4264-4F87-8805-B0C03606F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06CF385-07A9-41A3-AE1D-D9E87FF7365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{99CC90B4-E1ED-4097-AFCA-506C6C3497EB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{99CC90B4-E1ED-4097-AFCA-506C6C3497EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro-UK" sheetId="10" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,6 +1412,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1446,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,12 +1558,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1574,6 +1710,118 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1636,6 +1884,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1650,6 +1912,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1658,6 +1969,20 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1699,27 +2024,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1755,7 +2059,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1769,287 +2073,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2372,14 +2396,14 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2561,7 @@
         <v>Metropolitan</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -2621,7 +2645,7 @@
         <v>0.82296000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -2705,7 +2729,7 @@
         <v>0.82447999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -2789,7 +2813,7 @@
         <v>0.82599900000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -2873,7 +2897,7 @@
         <v>0.827519</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -2957,7 +2981,7 @@
         <v>0.82903899999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3041,7 +3065,7 @@
         <v>0.83028000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -3125,7 +3149,7 @@
         <v>0.83152099999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -3209,7 +3233,7 @@
         <v>0.832762</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -3293,7 +3317,7 @@
         <v>0.83400200000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -3377,7 +3401,7 @@
         <v>0.83524299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -3461,7 +3485,7 @@
         <v>0.83648400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2026</v>
       </c>
@@ -3545,7 +3569,7 @@
         <v>0.83772500000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2027</v>
       </c>
@@ -3629,7 +3653,7 @@
         <v>0.83896599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2028</v>
       </c>
@@ -3713,7 +3737,7 @@
         <v>0.84020600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2029</v>
       </c>
@@ -3797,7 +3821,7 @@
         <v>0.84144699999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2030</v>
       </c>
@@ -3881,7 +3905,7 @@
         <v>0.84268799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2031</v>
       </c>
@@ -3965,7 +3989,7 @@
         <v>0.84392900000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2032</v>
       </c>
@@ -4049,7 +4073,7 @@
         <v>0.84516999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2033</v>
       </c>
@@ -4133,7 +4157,7 @@
         <v>0.84641</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2034</v>
       </c>
@@ -4217,7 +4241,7 @@
         <v>0.84765100000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2035</v>
       </c>
@@ -4301,7 +4325,7 @@
         <v>0.84889199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2036</v>
       </c>
@@ -4385,7 +4409,7 @@
         <v>0.85013300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2037</v>
       </c>
@@ -4469,7 +4493,7 @@
         <v>0.85137399999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2038</v>
       </c>
@@ -4553,7 +4577,7 @@
         <v>0.85261399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2039</v>
       </c>
@@ -4637,7 +4661,7 @@
         <v>0.85385500000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2040</v>
       </c>
@@ -4721,7 +4745,7 @@
         <v>0.85509599999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2041</v>
       </c>
@@ -4805,7 +4829,7 @@
         <v>0.85633700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2042</v>
       </c>
@@ -4889,7 +4913,7 @@
         <v>0.85757799999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2043</v>
       </c>
@@ -4973,7 +4997,7 @@
         <v>0.85881799999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2044</v>
       </c>
@@ -5057,7 +5081,7 @@
         <v>0.86005900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2045</v>
       </c>
@@ -5141,7 +5165,7 @@
         <v>0.86129999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2046</v>
       </c>
@@ -5225,7 +5249,7 @@
         <v>0.862541</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2047</v>
       </c>
@@ -5309,7 +5333,7 @@
         <v>0.86378200000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2048</v>
       </c>
@@ -5393,7 +5417,7 @@
         <v>0.86502199999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2049</v>
       </c>
@@ -5477,7 +5501,7 @@
         <v>0.86626300000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2050</v>
       </c>
@@ -5561,12 +5585,12 @@
         <v>0.86750400000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43" s="30" t="s">
         <v>16</v>
       </c>
@@ -5574,7 +5598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -5607,7 +5631,7 @@
         <v>Metropolitan</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -5616,7 +5640,7 @@
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -5625,7 +5649,7 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2017</v>
       </c>
@@ -5634,7 +5658,7 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -5643,7 +5667,7 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -5652,7 +5676,7 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -5661,7 +5685,7 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -5670,7 +5694,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -5679,7 +5703,7 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -5716,7 +5740,7 @@
         <v>3.0171028799999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2024</v>
       </c>
@@ -5753,7 +5777,7 @@
         <v>6.0433086697881944E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2025</v>
       </c>
@@ -5790,7 +5814,7 @@
         <v>1.9508859510886545E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2026</v>
       </c>
@@ -5827,7 +5851,7 @@
         <v>3.2481211611832927E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2027</v>
       </c>
@@ -5864,7 +5888,7 @@
         <v>4.8083590365646689E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2028</v>
       </c>
@@ -5901,7 +5925,7 @@
         <v>6.8622423727534132E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2029</v>
       </c>
@@ -5938,7 +5962,7 @@
         <v>8.9563747577532604E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2030</v>
       </c>
@@ -5975,7 +5999,7 @@
         <v>0.1109154493447948</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2031</v>
       </c>
@@ -6012,7 +6036,7 @@
         <v>0.13268557102495482</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2032</v>
       </c>
@@ -6049,7 +6073,7 @@
         <v>0.15488231220910009</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2033</v>
       </c>
@@ -6086,7 +6110,7 @@
         <v>0.17751403317209968</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2034</v>
       </c>
@@ -6123,7 +6147,7 @@
         <v>0.20058925802145389</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2035</v>
       </c>
@@ -6160,7 +6184,7 @@
         <v>0.2241166779078505</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2036</v>
       </c>
@@ -6197,7 +6221,7 @@
         <v>0.24810515429863655</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2037</v>
       </c>
@@ -6234,7 +6258,7 @@
         <v>0.27412190623999155</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2038</v>
       </c>
@@ -6271,7 +6295,7 @@
         <v>0.3006809773755641</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2039</v>
       </c>
@@ -6308,7 +6332,7 @@
         <v>0.32779367234895784</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2040</v>
       </c>
@@ -6345,7 +6369,7 @@
         <v>0.35547153144907195</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2041</v>
       </c>
@@ -6382,7 +6406,7 @@
         <v>0.38372633552212787</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2042</v>
       </c>
@@ -6419,7 +6443,7 @@
         <v>0.41257011098608665</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2043</v>
       </c>
@@ -6456,7 +6480,7 @@
         <v>0.44201513494959155</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2044</v>
       </c>
@@ -6493,7 +6517,7 @@
         <v>0.47207394043761575</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2045</v>
       </c>
@@ -6530,7 +6554,7 @@
         <v>0.50275932172603777</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2046</v>
       </c>
@@ -6567,7 +6591,7 @@
         <v>0.5340843397874171</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2047</v>
       </c>
@@ -6604,7 +6628,7 @@
         <v>0.56606232785028587</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2048</v>
       </c>
@@ -6641,7 +6665,7 @@
         <v>0.59870689707432501</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2049</v>
       </c>
@@ -6678,7 +6702,7 @@
         <v>0.63203194234383941</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2050</v>
       </c>
@@ -6715,7 +6739,7 @@
         <v>0.66605164818199669</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="37">
         <f>(1+B80)^(1/($A80-$A52))-1</f>
         <v>9.1631605241957459E-3</v>
@@ -6750,7 +6774,7 @@
         <v>1.8397782555136688E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="39">
         <f>B80+1</f>
         <v>1.2909780860664601</v>
@@ -6786,19 +6810,19 @@
       <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="36.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="64.1328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="7" width="22.1328125" customWidth="1"/>
-    <col min="8" max="8" width="25.59765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="6" customWidth="1"/>
     <col min="9" max="9" width="64" style="6" customWidth="1"/>
     <col min="10" max="10" width="53" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D1" s="41" t="s">
         <v>18</v>
       </c>
@@ -6809,7 +6833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
@@ -6824,7 +6848,7 @@
       </c>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -6856,7 +6880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -6878,7 +6902,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -6886,7 +6910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
@@ -6894,7 +6918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
@@ -6902,7 +6926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -6916,7 +6940,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
@@ -6925,7 +6949,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>47</v>
       </c>
@@ -6954,7 +6978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
@@ -6983,7 +7007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -7012,7 +7036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>47</v>
       </c>
@@ -7041,7 +7065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
@@ -7070,7 +7094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -7079,7 +7103,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
@@ -7108,7 +7132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -7137,7 +7161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>76</v>
       </c>
@@ -7146,7 +7170,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
@@ -7178,7 +7202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>82</v>
       </c>
@@ -7195,7 +7219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>47</v>
       </c>
@@ -7224,7 +7248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -7253,7 +7277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="18" t="s">
         <v>94</v>
       </c>
@@ -7262,7 +7286,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
@@ -7291,7 +7315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
@@ -7320,7 +7344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>47</v>
       </c>
@@ -7349,7 +7373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>107</v>
       </c>
@@ -7358,7 +7382,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -7387,7 +7411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -7419,7 +7443,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" s="22" t="s">
         <v>115</v>
       </c>
@@ -7434,7 +7458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>118</v>
       </c>
@@ -7443,7 +7467,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -7472,7 +7496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -7501,7 +7525,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="22" t="s">
         <v>127</v>
       </c>
@@ -7516,7 +7540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>130</v>
       </c>
@@ -7525,7 +7549,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -7554,7 +7578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B39" s="22" t="s">
         <v>127</v>
       </c>
@@ -7572,7 +7596,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>137</v>
       </c>
@@ -7581,7 +7605,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -7610,7 +7634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>141</v>
       </c>
@@ -7619,7 +7643,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -7648,7 +7672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -7674,7 +7698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>149</v>
       </c>
@@ -7683,7 +7707,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7712,7 +7736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -7741,7 +7765,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7770,7 +7794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
         <v>162</v>
       </c>
@@ -7779,7 +7803,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="29.65" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
@@ -7808,7 +7832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7834,7 +7858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="22" t="s">
         <v>170</v>
       </c>
@@ -7852,7 +7876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A53" s="11" t="s">
         <v>173</v>
       </c>
@@ -7861,7 +7885,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -7893,7 +7917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -7922,7 +7946,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -7954,7 +7978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -7983,7 +8007,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -8010,7 +8034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -8036,7 +8060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -8068,7 +8092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
         <v>199</v>
       </c>
@@ -8077,7 +8101,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B62" s="22" t="s">
         <v>200</v>
       </c>
@@ -8101,7 +8125,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
         <v>203</v>
       </c>
@@ -8110,7 +8134,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -8139,7 +8163,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -8168,7 +8192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A66" s="11" t="s">
         <v>210</v>
       </c>
@@ -8177,7 +8201,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>211</v>
       </c>
@@ -8189,7 +8213,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>213</v>
       </c>
@@ -8198,7 +8222,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>214</v>
       </c>
@@ -8210,7 +8234,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A70" s="11" t="s">
         <v>216</v>
       </c>
@@ -8219,7 +8243,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -8248,7 +8272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -8274,7 +8298,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -8303,7 +8327,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A74" s="11" t="s">
         <v>224</v>
       </c>
@@ -8316,7 +8340,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>226</v>
       </c>
@@ -8328,7 +8352,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>228</v>
       </c>
@@ -8348,7 +8372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -8377,12 +8401,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -8411,12 +8435,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A81" s="27" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B82" s="28" t="s">
         <v>239</v>
       </c>
@@ -8433,7 +8457,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -8450,7 +8474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>242</v>
       </c>
@@ -8467,7 +8491,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>243</v>
       </c>
@@ -8489,14 +8513,14 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:G16">
-    <cfRule type="cellIs" dxfId="71" priority="185" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="71" priority="187" operator="equal">
+      <formula>"Low/Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="186" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="187" operator="equal">
-      <formula>"Low/Medium"</formula>
+    <cfRule type="cellIs" dxfId="69" priority="185" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="188" operator="equal">
       <formula>"Low"</formula>
@@ -8517,73 +8541,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:G21">
-    <cfRule type="cellIs" dxfId="63" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="272" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="269" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="270" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="271" operator="equal">
       <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="272" operator="equal">
-      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:G24">
-    <cfRule type="cellIs" dxfId="59" priority="101" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="103" operator="equal">
+      <formula>"Low/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="102" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="103" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="104" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="56" priority="101" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:G28">
-    <cfRule type="cellIs" dxfId="55" priority="197" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="55" priority="198" operator="equal">
+      <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="198" operator="equal">
-      <formula>"High/Medium"</formula>
+    <cfRule type="cellIs" dxfId="54" priority="200" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="199" operator="equal">
       <formula>"Low/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="200" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="52" priority="197" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:G31">
-    <cfRule type="cellIs" dxfId="51" priority="253" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="51" priority="256" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="255" operator="equal">
+      <formula>"Low/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="254" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="255" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="256" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="48" priority="253" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:G36">
-    <cfRule type="cellIs" dxfId="47" priority="229" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="47" priority="231" operator="equal">
+      <formula>"Low/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="232" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="230" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="231" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="232" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="44" priority="229" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:G39">
@@ -8615,25 +8639,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:G44">
-    <cfRule type="cellIs" dxfId="35" priority="77" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="78" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="79" operator="equal">
       <formula>"Low/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="80" operator="equal">
       <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="77" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:G48">
-    <cfRule type="cellIs" dxfId="31" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="166" operator="equal">
+      <formula>"High/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="165" operator="equal">
       <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="166" operator="equal">
-      <formula>"High/Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="167" operator="equal">
       <formula>"Low/Medium"</formula>
@@ -8643,31 +8667,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:G52">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+      <formula>"Low/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"High/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
-      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:G60">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+      <formula>"Low/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:G62">
@@ -8685,39 +8709,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:G65">
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="39" operator="equal">
       <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
-      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:G73">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"High/Medium"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Low/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"High/Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:G77">
-    <cfRule type="cellIs" dxfId="7" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="134" operator="equal">
+      <formula>"High/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="133" operator="equal">
       <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="134" operator="equal">
-      <formula>"High/Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="135" operator="equal">
       <formula>"Low/Medium"</formula>
@@ -8727,17 +8751,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:G79">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"High"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"Low/Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"High/Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"Low/Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>"Low"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8757,14 +8781,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
@@ -8793,7 +8817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8922,7 +8946,7 @@
         <v>Metropolitan</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -9006,7 +9030,7 @@
         <v>0.82296000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -9090,7 +9114,7 @@
         <v>0.82447999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -9174,7 +9198,7 @@
         <v>0.82599900000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -9258,7 +9282,7 @@
         <v>0.827519</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -9342,7 +9366,7 @@
         <v>0.82903899999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -9426,7 +9450,7 @@
         <v>0.83028000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -9510,7 +9534,7 @@
         <v>0.83152099999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -9594,7 +9618,7 @@
         <v>0.832762</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -9678,7 +9702,7 @@
         <v>0.83400200000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -9762,7 +9786,7 @@
         <v>0.83524299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -9846,7 +9870,7 @@
         <v>0.83648400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2026</v>
       </c>
@@ -9930,7 +9954,7 @@
         <v>0.83772500000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2027</v>
       </c>
@@ -10014,7 +10038,7 @@
         <v>0.83896599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2028</v>
       </c>
@@ -10098,7 +10122,7 @@
         <v>0.84020600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2029</v>
       </c>
@@ -10182,7 +10206,7 @@
         <v>0.84144699999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2030</v>
       </c>
@@ -10266,7 +10290,7 @@
         <v>0.84268799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2031</v>
       </c>
@@ -10350,7 +10374,7 @@
         <v>0.84392900000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2032</v>
       </c>
@@ -10434,7 +10458,7 @@
         <v>0.84516999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2033</v>
       </c>
@@ -10518,7 +10542,7 @@
         <v>0.84641</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2034</v>
       </c>
@@ -10602,7 +10626,7 @@
         <v>0.84765100000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2035</v>
       </c>
@@ -10686,7 +10710,7 @@
         <v>0.84889199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2036</v>
       </c>
@@ -10770,7 +10794,7 @@
         <v>0.85013300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2037</v>
       </c>
@@ -10854,7 +10878,7 @@
         <v>0.85137399999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2038</v>
       </c>
@@ -10938,7 +10962,7 @@
         <v>0.85261399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2039</v>
       </c>
@@ -11022,7 +11046,7 @@
         <v>0.85385500000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2040</v>
       </c>
@@ -11106,7 +11130,7 @@
         <v>0.85509599999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2041</v>
       </c>
@@ -11190,7 +11214,7 @@
         <v>0.85633700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2042</v>
       </c>
@@ -11274,7 +11298,7 @@
         <v>0.85757799999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2043</v>
       </c>
@@ -11358,7 +11382,7 @@
         <v>0.85881799999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2044</v>
       </c>
@@ -11442,7 +11466,7 @@
         <v>0.86005900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2045</v>
       </c>
@@ -11526,7 +11550,7 @@
         <v>0.86129999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2046</v>
       </c>
@@ -11610,7 +11634,7 @@
         <v>0.862541</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2047</v>
       </c>
@@ -11694,7 +11718,7 @@
         <v>0.86378200000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2048</v>
       </c>
@@ -11778,7 +11802,7 @@
         <v>0.86502199999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2049</v>
       </c>
@@ -11862,7 +11886,7 @@
         <v>0.86626300000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2050</v>
       </c>
@@ -11946,12 +11970,12 @@
         <v>0.86750400000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43" s="30" t="s">
         <v>16</v>
       </c>
@@ -11959,7 +11983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -11992,7 +12016,7 @@
         <v>Metropolitan</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -12001,7 +12025,7 @@
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -12010,7 +12034,7 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2017</v>
       </c>
@@ -12019,7 +12043,7 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -12028,7 +12052,7 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -12037,7 +12061,7 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -12046,7 +12070,7 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -12055,7 +12079,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -12064,7 +12088,7 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -12101,7 +12125,7 @@
         <v>3.0171028799999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2024</v>
       </c>
@@ -12138,7 +12162,7 @@
         <v>6.0433086697881944E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2025</v>
       </c>
@@ -12175,7 +12199,7 @@
         <v>1.9508859510886545E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2026</v>
       </c>
@@ -12212,7 +12236,7 @@
         <v>3.2481211611832927E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2027</v>
       </c>
@@ -12249,7 +12273,7 @@
         <v>4.8083590365646689E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2028</v>
       </c>
@@ -12286,7 +12310,7 @@
         <v>6.8622423727534132E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2029</v>
       </c>
@@ -12323,7 +12347,7 @@
         <v>8.9563747577532604E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2030</v>
       </c>
@@ -12360,7 +12384,7 @@
         <v>0.1109154493447948</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2031</v>
       </c>
@@ -12397,7 +12421,7 @@
         <v>0.13268557102495482</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2032</v>
       </c>
@@ -12434,7 +12458,7 @@
         <v>0.15488231220910009</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2033</v>
       </c>
@@ -12471,7 +12495,7 @@
         <v>0.17751403317209968</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2034</v>
       </c>
@@ -12508,7 +12532,7 @@
         <v>0.20058925802145389</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2035</v>
       </c>
@@ -12545,7 +12569,7 @@
         <v>0.2241166779078505</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2036</v>
       </c>
@@ -12582,7 +12606,7 @@
         <v>0.24810515429863655</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2037</v>
       </c>
@@ -12619,7 +12643,7 @@
         <v>0.27412190623999155</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2038</v>
       </c>
@@ -12656,7 +12680,7 @@
         <v>0.3006809773755641</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2039</v>
       </c>
@@ -12693,7 +12717,7 @@
         <v>0.32779367234895784</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2040</v>
       </c>
@@ -12730,7 +12754,7 @@
         <v>0.35547153144907195</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2041</v>
       </c>
@@ -12767,7 +12791,7 @@
         <v>0.38372633552212787</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2042</v>
       </c>
@@ -12804,7 +12828,7 @@
         <v>0.41257011098608665</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2043</v>
       </c>
@@ -12841,7 +12865,7 @@
         <v>0.44201513494959155</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2044</v>
       </c>
@@ -12878,7 +12902,7 @@
         <v>0.47207394043761575</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2045</v>
       </c>
@@ -12915,7 +12939,7 @@
         <v>0.50275932172603777</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2046</v>
       </c>
@@ -12952,7 +12976,7 @@
         <v>0.5340843397874171</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2047</v>
       </c>
@@ -12989,7 +13013,7 @@
         <v>0.56606232785028587</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2048</v>
       </c>
@@ -13026,7 +13050,7 @@
         <v>0.59870689707432501</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2049</v>
       </c>
@@ -13063,7 +13087,7 @@
         <v>0.63203194234383941</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2050</v>
       </c>
@@ -13100,7 +13124,7 @@
         <v>0.66605164818199669</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="37">
         <f>(1+B80)^(1/($A80-$A52))-1</f>
         <v>9.1631605241957459E-3</v>
@@ -13135,7 +13159,7 @@
         <v>1.8397782555136688E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="39">
         <f>B80+1</f>
         <v>1.2909780860664601</v>
@@ -13166,23 +13190,25 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="36.1328125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="30" style="6" customWidth="1"/>
-    <col min="6" max="9" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30" style="42" customWidth="1"/>
+    <col min="5" max="5" width="30" style="6" customWidth="1"/>
+    <col min="6" max="9" width="20.7265625" customWidth="1"/>
     <col min="10" max="10" width="28" style="6" customWidth="1"/>
     <col min="11" max="11" width="64" style="6" customWidth="1"/>
     <col min="12" max="12" width="53" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F1" s="41" t="s">
         <v>18</v>
       </c>
@@ -13191,7 +13217,7 @@
       <c r="I1" s="41"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F2" s="7" t="s">
         <v>244</v>
       </c>
@@ -13206,7 +13232,7 @@
       </c>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
@@ -13216,7 +13242,7 @@
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="43" t="s">
         <v>282</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -13244,13 +13270,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -13260,7 +13286,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13270,7 +13296,7 @@
       <c r="C5" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="42" t="s">
         <v>280</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -13292,7 +13318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13302,7 +13328,7 @@
       <c r="C6" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="42" t="s">
         <v>280</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -13324,7 +13350,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -13334,7 +13360,7 @@
       <c r="C7" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="42" t="s">
         <v>280</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -13356,7 +13382,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -13366,7 +13392,7 @@
       <c r="C8" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="42" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -13391,7 +13417,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -13401,7 +13427,7 @@
       <c r="C9" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="42" t="s">
         <v>281</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -13426,7 +13452,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13436,7 +13462,7 @@
       <c r="C10" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="42" t="s">
         <v>283</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -13461,7 +13487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
@@ -13471,7 +13497,7 @@
       <c r="C11" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="42" t="s">
         <v>283</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -13493,7 +13519,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
@@ -13503,7 +13529,7 @@
       <c r="C12" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="42" t="s">
         <v>310</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -13525,7 +13551,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -13535,7 +13561,7 @@
       <c r="C13" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="42" t="s">
         <v>310</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -13557,7 +13583,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -13567,7 +13593,7 @@
       <c r="C14" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="42" t="s">
         <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -13594,7 +13620,7 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13602,17 +13628,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A0786C-E17B-4AD1-A1B8-65589D1A6C73}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>289</v>
       </c>
@@ -13620,7 +13646,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -13628,7 +13654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -13636,7 +13662,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>295</v>
       </c>
@@ -13644,7 +13670,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -13652,12 +13678,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -13665,7 +13691,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -13673,7 +13699,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -13681,7 +13707,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -13695,6 +13721,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="ec776a2e-aa90-42fe-8c76-cfe3819c2a73">
+      <UserInfo>
+        <DisplayName>Snape, Jack (GO-Science)</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Liam Blenkin (ShareGate Migration)</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Nicol, Cara (GO-Science)</DisplayName>
+        <AccountId>189</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bermingham, Rowena (GO-Science)</DisplayName>
+        <AccountId>42</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>White2, Emily (BEIS)</DisplayName>
+        <AccountId>188</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4F4B9C8D4E5FB419F9CC5D98855FC2A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92db766cf820f0a3f33beeff1e47ce9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5845f703-aefd-4152-9ce7-4004e1ab5465" xmlns:ns4="ec776a2e-aa90-42fe-8c76-cfe3819c2a73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49aecd7956b7dd0d9a021778df15d4b1" ns3:_="" ns4:_="">
     <xsd:import namespace="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
@@ -13929,41 +13990,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="ec776a2e-aa90-42fe-8c76-cfe3819c2a73">
-      <UserInfo>
-        <DisplayName>Snape, Jack (GO-Science)</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Liam Blenkin (ShareGate Migration)</DisplayName>
-        <AccountId>30</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Nicol, Cara (GO-Science)</DisplayName>
-        <AccountId>189</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bermingham, Rowena (GO-Science)</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>White2, Emily (BEIS)</DisplayName>
-        <AccountId>188</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13974,6 +14000,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6F20EE4-B803-4722-AA93-5A9AA5B24963}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA896614-F36B-4705-A471-C7AA800C9F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13992,23 +14035,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6F20EE4-B803-4722-AA93-5A9AA5B24963}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B0ACC6-BEE2-4028-BE08-44B8670BDB29}">
   <ds:schemaRefs>
